--- a/应急响应工具集整理.xlsx
+++ b/应急响应工具集整理.xlsx
@@ -105,7 +105,8 @@
   <si>
     <t>原因：
 1.有些个人电脑需要使用拓展坞插U盘
-2.需要两个U盘插入，一个应急工具盘+克隆取证数据盘</t>
+2.需要两个U盘插入，一个应急工具盘+克隆取证数据盘
+3.拓展坞功能选择多些的，特殊情况用得到</t>
   </si>
   <si>
     <t>软件工具</t>
@@ -718,12 +719,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="13.2"/>
       <color theme="1"/>
       <name val="Roboto"/>
@@ -733,6 +728,12 @@
       <sz val="10.2"/>
       <color rgb="FF36464E"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1760,12 +1761,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1853,7 +1854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="42" spans="1:5">
+    <row r="6" s="1" customFormat="1" ht="56" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>17</v>
@@ -1882,103 +1883,107 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+    <row r="9" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28" spans="1:5">
-      <c r="A12" s="3" t="s">
+    <row r="11" s="1" customFormat="1" ht="28" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+    <row r="14" s="1" customFormat="1" ht="28" spans="1:5">
       <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="28" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -1986,10 +1991,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1997,10 +2002,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -2008,10 +2013,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -2019,54 +2024,54 @@
       <c r="A20" s="3"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+    <row r="21" s="1" customFormat="1" ht="28" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="28" spans="1:5">
+    <row r="22" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+    <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
+    <row r="24" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -2074,71 +2079,71 @@
       <c r="A25" s="3"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+    <row r="26" s="1" customFormat="1" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="C29" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A30" s="3"/>
-      <c r="B30" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -2146,34 +2151,34 @@
       <c r="A31" s="3"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C32" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A33" s="3"/>
-      <c r="B33" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" s="6"/>
     </row>
@@ -2181,239 +2186,239 @@
       <c r="A34" s="3"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+    <row r="35" s="1" customFormat="1" spans="1:5">
       <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C35" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:5">
+    <row r="36" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A36" s="3"/>
-      <c r="B36" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C37" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+    <row r="39" s="1" customFormat="1" ht="28" spans="1:5">
       <c r="A39" s="3"/>
-      <c r="B39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>84</v>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="28" spans="1:5">
+    <row r="40" s="1" customFormat="1" ht="42" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="42" spans="1:5">
+    <row r="41" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="7" t="s">
-        <v>88</v>
+      <c r="C41" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20" customHeight="1" spans="1:5">
+    <row r="42" s="1" customFormat="1" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>90</v>
+      <c r="C42" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="28" spans="1:5">
       <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="C43" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="28" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="28" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:5">
       <c r="A45" s="3"/>
-      <c r="B45" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:5">
-      <c r="A46" s="3"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:5">
-      <c r="A47" s="8"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A47" s="10"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="17.5" spans="1:5">
-      <c r="A48" s="10"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="28" spans="1:5">
-      <c r="A49" s="3" t="s">
+    <row r="48" s="1" customFormat="1" ht="28" spans="1:5">
+      <c r="A48" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="B48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:5">
+      <c r="A49" s="3"/>
       <c r="B49" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:5">
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="28" spans="1:5">
       <c r="A50" s="3"/>
-      <c r="B50" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="28" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="252" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C51" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="252" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:5">
       <c r="A52" s="3"/>
-      <c r="B52" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E53" s="6"/>
     </row>
@@ -2421,10 +2426,10 @@
       <c r="A54" s="3"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="6"/>
     </row>
@@ -2432,36 +2437,36 @@
       <c r="A55" s="3"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:5">
       <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="C56" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:5">
       <c r="A57" s="3"/>
-      <c r="B57" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E57" s="6"/>
     </row>
@@ -2469,34 +2474,34 @@
       <c r="A58" s="3"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E58" s="6"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:5">
       <c r="A59" s="3"/>
-      <c r="B59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C59" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E59" s="6"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:5">
       <c r="A60" s="3"/>
-      <c r="B60" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E60" s="6"/>
     </row>
@@ -2504,157 +2509,146 @@
       <c r="A61" s="3"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E61" s="6"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:5">
       <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C62" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:5">
       <c r="A63" s="3"/>
-      <c r="B63" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:5">
       <c r="A64" s="3"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C64" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:5">
+    <row r="65" s="1" customFormat="1" ht="28" spans="1:5">
       <c r="A65" s="3"/>
-      <c r="B65" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="28" spans="1:5">
+      <c r="B65" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:5">
-      <c r="A67" s="3"/>
-      <c r="B67" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E66" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A12:A46"/>
-    <mergeCell ref="A49:A67"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A11:A45"/>
+    <mergeCell ref="A48:A66"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" display="https://docs.microsoft.com/zh-cn/windows-hardware/drivers/debugger/debugger-download-tools" tooltip="https://docs.microsoft.com/zh-cn/windows-hardware/drivers/debugger/debugger-download-tools"/>
-    <hyperlink ref="D15" r:id="rId2" display="https://www.systeminformer.com/downloads" tooltip="https://www.systeminformer.com/downloads"/>
-    <hyperlink ref="D16" r:id="rId3" display="http://openark.blackint3.com:88/"/>
-    <hyperlink ref="D26" r:id="rId4" display="https://www.wireshark.org/"/>
-    <hyperlink ref="D30" r:id="rId5" display="https://www.d99net.net/"/>
-    <hyperlink ref="D21" r:id="rId6" display="https://learn.microsoft.com/zh-cn/sysinternals/" tooltip="https://learn.microsoft.com/zh-cn/sysinternals/"/>
-    <hyperlink ref="D23" r:id="rId7" display="https://frippery.org/busybox/"/>
-    <hyperlink ref="D46" r:id="rId8" display="https://www.nirsoft.net/utils/full_event_log_view.html"/>
-    <hyperlink ref="D24" r:id="rId9" display="https://www.nirsoft.net/utils/windows_last_activity_view.html"/>
-    <hyperlink ref="D33" r:id="rId10" display="https://fscan.club/"/>
-    <hyperlink ref="D34" r:id="rId11" display="https://gobysec.net/"/>
-    <hyperlink ref="D35" r:id="rId12" display="https://github.com/projectdiscovery/nuclei"/>
-    <hyperlink ref="D38" r:id="rId13" display="https://localsend.org/zh-CN"/>
-    <hyperlink ref="D40" r:id="rId14" display="https://www.bandisoft.com/bandizip/&#10;https://www.360.cn/compress/"/>
-    <hyperlink ref="D39" r:id="rId15" display="https://www.voidtools.com/zh-cn/"/>
-    <hyperlink ref="D42" r:id="rId16" display="https://www.sublimetext.com/download"/>
-    <hyperlink ref="D36" r:id="rId17" display="https://github.com/abc123info/BlueTeamTools/"/>
-    <hyperlink ref="D37" r:id="rId18" display="https://github.com/guyoung/CaptfEncoder"/>
-    <hyperlink ref="D28" r:id="rId19" display="https://sd.360.cn/download_center.html"/>
-    <hyperlink ref="D29" r:id="rId20" display="https://www.huorong.cn/"/>
-    <hyperlink ref="D31" r:id="rId21" display="https://www.shellpub.com/"/>
-    <hyperlink ref="D32" r:id="rId22" display="https://www.safedog.cn/"/>
-    <hyperlink ref="D20" r:id="rId5" display="https://www.d99net.net/"/>
-    <hyperlink ref="D27" r:id="rId23" display="https://www.lpssy.edu.cn/xdjyjszx/_t38/2022/0401/c939a71758/page.htm"/>
-    <hyperlink ref="D45" r:id="rId24" display="https://github.com/Fheidt12/Windows_Log" tooltip="https://github.com/Fheidt12/Windows_Log"/>
-    <hyperlink ref="D44" r:id="rId25" display="https://pan.baidu.com/s/1ncQfdfQ5MPCZmz3Ya9yyXQ?pwd=my5x"/>
-    <hyperlink ref="D52" r:id="rId26" display="https://busybox.net/downloads/busybox-1.37.0.tar.bz2"/>
-    <hyperlink ref="D43" r:id="rId27" display="http://hibitsoft.ir/Uninstaller.html"/>
-    <hyperlink ref="D18" r:id="rId28" display="https://live.sysinternals.com/"/>
-    <hyperlink ref="D17" r:id="rId29" display="https://gitcode.com/Universal-Tool/492d2/"/>
-    <hyperlink ref="D57" r:id="rId5" display="https://www.d99net.net/"/>
-    <hyperlink ref="D58" r:id="rId21" display="https://www.shellpub.com/"/>
-    <hyperlink ref="D59" r:id="rId22" display="https://www.safedog.cn/"/>
-    <hyperlink ref="D60" r:id="rId10" display="https://fscan.club/"/>
-    <hyperlink ref="D61" r:id="rId11" display="https://gobysec.net/"/>
-    <hyperlink ref="D62" r:id="rId12" display="https://github.com/projectdiscovery/nuclei"/>
-    <hyperlink ref="D63" r:id="rId17" display="https://github.com/abc123info/BlueTeamTools/"/>
-    <hyperlink ref="D64" r:id="rId18" display="https://github.com/guyoung/CaptfEncoder"/>
-    <hyperlink ref="D65" r:id="rId13" display="https://localsend.org/zh-CN"/>
-    <hyperlink ref="D66" r:id="rId25" display="https://pan.baidu.com/s/1ncQfdfQ5MPCZmz3Ya9yyXQ?pwd=my5x"/>
-    <hyperlink ref="D56" r:id="rId30" display="https://github.com/Ashro-one/Ashro_linux"/>
-    <hyperlink ref="D53" r:id="rId31" display="https://github.com/enomothem/Whoamifuck"/>
-    <hyperlink ref="D54" r:id="rId32" display="https://github.com/grayddq/GScan"/>
-    <hyperlink ref="D55" r:id="rId33" display="http://www.chkrootkit.org/"/>
-    <hyperlink ref="D67" r:id="rId34" display="https://github.com/securityjoes/MasterParser"/>
-    <hyperlink ref="D51" r:id="rId35" display="https://github.com/volatilityfoundation/volatility"/>
+    <hyperlink ref="D21" r:id="rId1" display="https://docs.microsoft.com/zh-cn/windows-hardware/drivers/debugger/debugger-download-tools" tooltip="https://docs.microsoft.com/zh-cn/windows-hardware/drivers/debugger/debugger-download-tools"/>
+    <hyperlink ref="D14" r:id="rId2" display="https://www.systeminformer.com/downloads" tooltip="https://www.systeminformer.com/downloads"/>
+    <hyperlink ref="D15" r:id="rId3" display="http://openark.blackint3.com:88/"/>
+    <hyperlink ref="D25" r:id="rId4" display="https://www.wireshark.org/"/>
+    <hyperlink ref="D29" r:id="rId5" display="https://www.d99net.net/"/>
+    <hyperlink ref="D20" r:id="rId6" display="https://learn.microsoft.com/zh-cn/sysinternals/" tooltip="https://learn.microsoft.com/zh-cn/sysinternals/"/>
+    <hyperlink ref="D22" r:id="rId7" display="https://frippery.org/busybox/"/>
+    <hyperlink ref="D45" r:id="rId8" display="https://www.nirsoft.net/utils/full_event_log_view.html"/>
+    <hyperlink ref="D23" r:id="rId9" display="https://www.nirsoft.net/utils/windows_last_activity_view.html"/>
+    <hyperlink ref="D32" r:id="rId10" display="https://fscan.club/"/>
+    <hyperlink ref="D33" r:id="rId11" display="https://gobysec.net/"/>
+    <hyperlink ref="D34" r:id="rId12" display="https://github.com/projectdiscovery/nuclei"/>
+    <hyperlink ref="D37" r:id="rId13" display="https://localsend.org/zh-CN"/>
+    <hyperlink ref="D39" r:id="rId14" display="https://www.bandisoft.com/bandizip/&#10;https://www.360.cn/compress/"/>
+    <hyperlink ref="D38" r:id="rId15" display="https://www.voidtools.com/zh-cn/"/>
+    <hyperlink ref="D41" r:id="rId16" display="https://www.sublimetext.com/download"/>
+    <hyperlink ref="D35" r:id="rId17" display="https://github.com/abc123info/BlueTeamTools/"/>
+    <hyperlink ref="D36" r:id="rId18" display="https://github.com/guyoung/CaptfEncoder"/>
+    <hyperlink ref="D27" r:id="rId19" display="https://sd.360.cn/download_center.html"/>
+    <hyperlink ref="D28" r:id="rId20" display="https://www.huorong.cn/"/>
+    <hyperlink ref="D30" r:id="rId21" display="https://www.shellpub.com/"/>
+    <hyperlink ref="D31" r:id="rId22" display="https://www.safedog.cn/"/>
+    <hyperlink ref="D19" r:id="rId5" display="https://www.d99net.net/"/>
+    <hyperlink ref="D26" r:id="rId23" display="https://www.lpssy.edu.cn/xdjyjszx/_t38/2022/0401/c939a71758/page.htm"/>
+    <hyperlink ref="D44" r:id="rId24" display="https://github.com/Fheidt12/Windows_Log" tooltip="https://github.com/Fheidt12/Windows_Log"/>
+    <hyperlink ref="D43" r:id="rId25" display="https://pan.baidu.com/s/1ncQfdfQ5MPCZmz3Ya9yyXQ?pwd=my5x"/>
+    <hyperlink ref="D51" r:id="rId26" display="https://busybox.net/downloads/busybox-1.37.0.tar.bz2"/>
+    <hyperlink ref="D42" r:id="rId27" display="http://hibitsoft.ir/Uninstaller.html"/>
+    <hyperlink ref="D17" r:id="rId28" display="https://live.sysinternals.com/"/>
+    <hyperlink ref="D16" r:id="rId29" display="https://gitcode.com/Universal-Tool/492d2/"/>
+    <hyperlink ref="D56" r:id="rId5" display="https://www.d99net.net/"/>
+    <hyperlink ref="D57" r:id="rId21" display="https://www.shellpub.com/"/>
+    <hyperlink ref="D58" r:id="rId22" display="https://www.safedog.cn/"/>
+    <hyperlink ref="D59" r:id="rId10" display="https://fscan.club/"/>
+    <hyperlink ref="D60" r:id="rId11" display="https://gobysec.net/"/>
+    <hyperlink ref="D61" r:id="rId12" display="https://github.com/projectdiscovery/nuclei"/>
+    <hyperlink ref="D62" r:id="rId17" display="https://github.com/abc123info/BlueTeamTools/"/>
+    <hyperlink ref="D63" r:id="rId18" display="https://github.com/guyoung/CaptfEncoder"/>
+    <hyperlink ref="D64" r:id="rId13" display="https://localsend.org/zh-CN"/>
+    <hyperlink ref="D65" r:id="rId25" display="https://pan.baidu.com/s/1ncQfdfQ5MPCZmz3Ya9yyXQ?pwd=my5x"/>
+    <hyperlink ref="D55" r:id="rId30" display="https://github.com/Ashro-one/Ashro_linux"/>
+    <hyperlink ref="D52" r:id="rId31" display="https://github.com/enomothem/Whoamifuck"/>
+    <hyperlink ref="D53" r:id="rId32" display="https://github.com/grayddq/GScan"/>
+    <hyperlink ref="D54" r:id="rId33" display="http://www.chkrootkit.org/"/>
+    <hyperlink ref="D66" r:id="rId34" display="https://github.com/securityjoes/MasterParser"/>
+    <hyperlink ref="D50" r:id="rId35" display="https://github.com/volatilityfoundation/volatility"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
